--- a/笔记.xlsx
+++ b/笔记.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\个人学习资料\笔记\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B298731-CA0E-4E67-B351-53EEEB861157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D47CE6-859B-45FA-8E35-8EA8F42C2193}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{36148643-393B-4A78-8C6F-3542CEB1248D}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="安装步骤" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>错误代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -861,12 +862,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">A Java Runtime Environment (JRE) or Java Development Kit (JDK)
+must be available in order to run Eclipse. No Java virtual machine
+E:\eclipse-SDK-3.4.1-win32\eclipse\jre\bin\javaw.exe
+javaw.exe in your current PATH
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在MyEclipse的安装目录中找到eclipse.ini这个文件，修改java的路径，如下图：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>一、准备阶段
 基础：每个字母有快捷键：preference/java/Editor/content/assert
 1.引入maven管理jar包：
 perference/maven/user setings/global settings   local Repository 
  2.安装tomcat
-3.Eclipse配置t+D2:G2omcat环境：   Perference/Server/RunEnvironment/Appach Tomcat/
+3.Eclipse配置tomcat环境：   Perference/Server/RunEnvironment/Appach Tomcat/
 tomcat 主目录： C:\Program Files\Apache Software Foundation\Tomcat 9.0
 4.关联tomcat:
    windwos/showView/server/  Serverlocations:调整配置，保存
@@ -1095,6 +1108,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2347736</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9B96F6-6407-45AE-9165-9623AFDB0D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="7726680"/>
+          <a:ext cx="8954276" cy="3878916"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1394,16 +1462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C36A7EDD-288D-44D0-ACF8-C8C028E89888}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="96.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="88.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1522,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -1536,12 +1604,21 @@
       </c>
       <c r="B16" s="4" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1549,8 +1626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956B152A-1C0C-4E05-BD3B-EFDB6A795B35}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1585,7 +1662,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>36</v>
